--- a/setup/chinese/BeijingDaxue1964-concepts.xlsx
+++ b/setup/chinese/BeijingDaxue1964-concepts.xlsx
@@ -2212,7 +2212,7 @@
     <t>碼头</t>
   </si>
   <si>
-    <t>pier // quay </t>
+    <t>pier // quay</t>
   </si>
   <si>
     <t>汽車</t>
@@ -2545,7 +2545,7 @@
     <t>十四、人品</t>
   </si>
   <si>
-    <t>man // menfolk</t>
+    <t>man</t>
   </si>
   <si>
     <t>女人</t>
@@ -5726,7 +5726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5753,11 +5753,6 @@
       <name val="SimSun"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5802,16 +5797,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5834,8 +5825,8 @@
   </sheetPr>
   <dimension ref="A1:I905"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B369" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I400" activeCellId="0" sqref="I400"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B390" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H402" activeCellId="0" sqref="H402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14484,7 +14475,7 @@
       <c r="H331" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="I331" s="2" t="s">
+      <c r="I331" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -15397,7 +15388,7 @@
       <c r="H366" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="I366" s="2" t="s">
+      <c r="I366" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -15868,7 +15859,7 @@
       <c r="H384" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="I384" s="2" t="s">
+      <c r="I384" s="1" t="s">
         <v>800</v>
       </c>
     </row>
@@ -16001,7 +15992,7 @@
       <c r="H389" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="I389" s="2" t="s">
+      <c r="I389" s="1" t="s">
         <v>809</v>
       </c>
     </row>
@@ -16290,7 +16281,7 @@
       <c r="H400" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="I400" s="2" t="s">
+      <c r="I400" s="1" t="s">
         <v>831</v>
       </c>
     </row>
